--- a/Prob et stat/LabosSynthèse.xlsx
+++ b/Prob et stat/LabosSynthèse.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corantin\Documents\Cegep\Prob et stat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Cegep\Prob et stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Échantillon" sheetId="1" r:id="rId1"/>
-    <sheet name="Labos3" sheetId="2" r:id="rId2"/>
+    <sheet name="Labo synthèse" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Activité_sportive__heures_par_semaine">Échantillon!$U$3:$U$366</definedName>
@@ -58,14 +58,11 @@
     <definedName name="Travail_rémunéré__heures_par_semaine">Échantillon!$T$3:$T$366</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
-  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8858" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8848" uniqueCount="157">
   <si>
     <t>Numéro</t>
   </si>
@@ -460,45 +457,6 @@
     <t>Source : Base de données MQ en automne 2014</t>
   </si>
   <si>
-    <t>Total général</t>
-  </si>
-  <si>
-    <t>Nombre de Dépenses loisirs ($ par mois)2</t>
-  </si>
-  <si>
-    <t>Nombre de Dépenses loisirs ($ par mois)</t>
-  </si>
-  <si>
-    <t>0-99</t>
-  </si>
-  <si>
-    <t>100-199</t>
-  </si>
-  <si>
-    <t>200-299</t>
-  </si>
-  <si>
-    <t>300-399</t>
-  </si>
-  <si>
-    <t>400-499</t>
-  </si>
-  <si>
-    <t>500-599</t>
-  </si>
-  <si>
-    <t>700-799</t>
-  </si>
-  <si>
-    <t>800-899</t>
-  </si>
-  <si>
-    <t>900-1000</t>
-  </si>
-  <si>
-    <t>Montant (en $)</t>
-  </si>
-  <si>
     <t>Minimum</t>
   </si>
   <si>
@@ -514,36 +472,6 @@
     <t>Q3</t>
   </si>
   <si>
-    <t xml:space="preserve">Répartition des 364 étudiants collégiaux du cours de MQ selon le montant moyen par mois pour les dépensses en loisirs, automne 2014 </t>
-  </si>
-  <si>
-    <t>[0-99[</t>
-  </si>
-  <si>
-    <t>[100-199[</t>
-  </si>
-  <si>
-    <t>[200-299[</t>
-  </si>
-  <si>
-    <t>[300-399[</t>
-  </si>
-  <si>
-    <t>[400-499[</t>
-  </si>
-  <si>
-    <t>[500-599[</t>
-  </si>
-  <si>
-    <t>[700-799[</t>
-  </si>
-  <si>
-    <t>[800-899[</t>
-  </si>
-  <si>
-    <t>[900-1000[</t>
-  </si>
-  <si>
     <t>C45</t>
   </si>
   <si>
@@ -556,14 +484,57 @@
     <t>Cote Z de 200</t>
   </si>
   <si>
-    <t>[600-699[</t>
-  </si>
-  <si>
     <t xml:space="preserve">Répartition des 364 étudiants collégiaux du cours de MQ selon le montant moyen par mois pour les dépenses en loisirs, automne 2014 
 </t>
   </si>
   <si>
     <t>Montant dépensé en loisir ($/Mois)</t>
+  </si>
+  <si>
+    <t>Estimation d'une variable par intervalle de confiance de la variable "Dépenses loisirs" ($/mois)</t>
+  </si>
+  <si>
+    <t>Borne inférieur de l'intervale de confiance</t>
+  </si>
+  <si>
+    <t>Borne supérieur del'intervale de confiance</t>
+  </si>
+  <si>
+    <t>Marge d'erreur (19/20)</t>
+  </si>
+  <si>
+    <t>[0;99[</t>
+  </si>
+  <si>
+    <t>[100;199[</t>
+  </si>
+  <si>
+    <t>[200;299[</t>
+  </si>
+  <si>
+    <t>[300;399[</t>
+  </si>
+  <si>
+    <t>[400;499[</t>
+  </si>
+  <si>
+    <t>[500;599[</t>
+  </si>
+  <si>
+    <t>[600;699[</t>
+  </si>
+  <si>
+    <t>[700;799[</t>
+  </si>
+  <si>
+    <t>[800;899[</t>
+  </si>
+  <si>
+    <t>[900;1000[</t>
+  </si>
+  <si>
+    <t>Tableau de mesures de la variable Dépenses Loisirs ($/mois)
+chez les étudiants collégiaux du cours de MQ, automne 2014</t>
   </si>
 </sst>
 </file>
@@ -687,7 +658,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -962,6 +933,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -991,7 +1000,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1051,6 +1060,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1072,50 +1116,35 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -1321,45 +1350,45 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Labos3!$B$10:$B$19</c:f>
+              <c:f>'Labo synthèse'!$B$10:$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>[0-99[</c:v>
+                  <c:v>[0;99[</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[100-199[</c:v>
+                  <c:v>[100;199[</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[200-299[</c:v>
+                  <c:v>[200;299[</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[300-399[</c:v>
+                  <c:v>[300;399[</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[400-499[</c:v>
+                  <c:v>[400;499[</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[500-599[</c:v>
+                  <c:v>[500;599[</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[600-699[</c:v>
+                  <c:v>[600;699[</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[700-799[</c:v>
+                  <c:v>[700;799[</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[800-899[</c:v>
+                  <c:v>[800;899[</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[900-1000[</c:v>
+                  <c:v>[900;1000[</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Labos3!$D$10:$D$19</c:f>
+              <c:f>'Labo synthèse'!$D$10:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1407,11 +1436,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="240488768"/>
-        <c:axId val="240489944"/>
+        <c:axId val="309009480"/>
+        <c:axId val="309009872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="240488768"/>
+        <c:axId val="309009480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,7 +1467,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Montant en $</a:t>
+                  <a:t>Dépensses</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> en loisirs</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> ($/mois)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1488,7 +1525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240489944"/>
+        <c:crossAx val="309009872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1496,7 +1533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="240489944"/>
+        <c:axId val="309009872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,7 +1560,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-CA"/>
-                  <a:t>Pourcentage d'étudiant</a:t>
+                  <a:t>Pourcentage d'étudiants (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1593,7 +1630,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240488768"/>
+        <c:crossAx val="309009480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2257,7 +2294,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Étude de la variable "Dépenses loisirs"</a:t>
+            <a:t>Étude de la variable Dépenses Loisirs</a:t>
           </a:r>
           <a:endParaRPr lang="fr-CA" sz="1400"/>
         </a:p>
@@ -2270,13 +2307,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>142876</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>66673</xdr:rowOff>
+      <xdr:rowOff>66672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1466851</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2285,8 +2322,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142876" y="7458073"/>
-          <a:ext cx="5791200" cy="1171578"/>
+          <a:off x="142876" y="7667622"/>
+          <a:ext cx="5791200" cy="1190627"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2392,16 +2429,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2410,8 +2447,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7029450" y="5029199"/>
-          <a:ext cx="3800475" cy="914401"/>
+          <a:off x="7381875" y="5200649"/>
+          <a:ext cx="3800475" cy="1066801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2452,6 +2489,70 @@
           <a:r>
             <a:rPr lang="fr-CA" sz="1100" baseline="0"/>
             <a:t> graphique démontre que pour la plus grosse partie des étudiants, le montant d'argent consacré à des loisirs est 100$ et moins. Il y a cependant une autre grosse partie qui dépensse entre 100 et 200$. On peut aussi observer qu'il n'y a pas d'étudiants qui dépenssent entre 600 et 700$.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="ZoneTexte 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="7791451"/>
+          <a:ext cx="3800475" cy="638174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0"/>
+            <a:t>Il y a 95% de chance que la dépensse moyenne en loisir par mois pour les étudiants du cours de MQ en 2014 se situe dans l'intervalle de [ 120,8 ; 153,6 ].</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2537,7 +2638,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>      </a:t>
+            <a:t>     </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-CA" sz="1100"/>
@@ -2581,7 +2682,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>      </a:t>
+            <a:t>     </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-CA" sz="1100"/>
@@ -2607,7 +2708,25 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>     </a:t>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-CA" sz="1100"/>
@@ -2620,7 +2739,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    </a:t>
+            <a:t>   </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-CA" sz="1100" baseline="0">
@@ -2651,7 +2770,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>      800      900    1000</a:t>
+            <a:t>     800      900    1000</a:t>
           </a:r>
           <a:endParaRPr lang="fr-CA" sz="1100"/>
         </a:p>
@@ -2659,1252 +2778,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="corantin noll" refreshedDate="42351.567187384258" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="364">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="AE2:AE366" sheet="Échantillon"/>
-  </cacheSource>
-  <cacheFields count="1">
-    <cacheField name="Dépenses loisirs ($ par mois)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1000" count="32">
-        <n v="400"/>
-        <n v="700"/>
-        <n v="30"/>
-        <n v="100"/>
-        <n v="200"/>
-        <n v="50"/>
-        <n v="220"/>
-        <n v="300"/>
-        <n v="10"/>
-        <n v="60"/>
-        <n v="500"/>
-        <n v="150"/>
-        <n v="40"/>
-        <n v="20"/>
-        <n v="1000"/>
-        <n v="16"/>
-        <n v="80"/>
-        <n v="75"/>
-        <n v="65"/>
-        <n v="25"/>
-        <n v="125"/>
-        <n v="55"/>
-        <n v="120"/>
-        <n v="250"/>
-        <n v="130"/>
-        <n v="70"/>
-        <n v="0"/>
-        <n v="90"/>
-        <n v="15"/>
-        <n v="240"/>
-        <n v="800"/>
-        <n v="45"/>
-      </sharedItems>
-      <fieldGroup base="0">
-        <rangePr startNum="0" endNum="1000" groupInterval="100"/>
-        <groupItems count="12">
-          <s v="&lt;0"/>
-          <s v="0-99"/>
-          <s v="100-199"/>
-          <s v="200-299"/>
-          <s v="300-399"/>
-          <s v="400-499"/>
-          <s v="500-599"/>
-          <s v="600-699"/>
-          <s v="700-799"/>
-          <s v="800-899"/>
-          <s v="900-1000"/>
-          <s v="&gt;1000"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="364">
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="23"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="23"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="24"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="25"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="25"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="23"/>
-  </r>
-  <r>
-    <x v="26"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="28"/>
-  </r>
-  <r>
-    <x v="24"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="25"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="24"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="25"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="23"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="29"/>
-  </r>
-  <r>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="26"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="26"/>
-  </r>
-  <r>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="23"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="30"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="24"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="23"/>
-  </r>
-  <r>
-    <x v="31"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="25"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="25"/>
-  </r>
-  <r>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="25"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="26"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Montant (en $)">
-  <location ref="K60:M70" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Nombre de Dépenses loisirs ($ par mois)" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Nombre de Dépenses loisirs ($ par mois)2" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47790,8 +46663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="D22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47803,6 +46676,7 @@
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" customWidth="1"/>
     <col min="12" max="12" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="38.42578125" customWidth="1"/>
@@ -47832,20 +46706,20 @@
       <c r="N2" s="7"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="B7" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
     </row>
     <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
     </row>
     <row r="9" spans="2:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="39" t="s">
-        <v>165</v>
+      <c r="B9" s="31" t="s">
+        <v>141</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>129</v>
@@ -47855,8 +46729,8 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="36" t="s">
-        <v>150</v>
+      <c r="B10" s="28" t="s">
+        <v>146</v>
       </c>
       <c r="C10" s="11">
         <v>163</v>
@@ -47866,8 +46740,8 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="37" t="s">
-        <v>151</v>
+      <c r="B11" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="C11" s="10">
         <v>115</v>
@@ -47877,8 +46751,8 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="37" t="s">
-        <v>152</v>
+      <c r="B12" s="29" t="s">
+        <v>148</v>
       </c>
       <c r="C12" s="10">
         <v>49</v>
@@ -47888,8 +46762,8 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="37" t="s">
-        <v>153</v>
+      <c r="B13" s="29" t="s">
+        <v>149</v>
       </c>
       <c r="C13" s="10">
         <v>15</v>
@@ -47899,8 +46773,8 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="37" t="s">
-        <v>154</v>
+      <c r="B14" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="C14" s="10">
         <v>6</v>
@@ -47910,8 +46784,8 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
-        <v>155</v>
+      <c r="B15" s="29" t="s">
+        <v>151</v>
       </c>
       <c r="C15" s="10">
         <v>6</v>
@@ -47921,8 +46795,8 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
-        <v>163</v>
+      <c r="B16" s="29" t="s">
+        <v>152</v>
       </c>
       <c r="C16" s="10">
         <v>0</v>
@@ -47932,8 +46806,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="37" t="s">
-        <v>156</v>
+      <c r="B17" s="29" t="s">
+        <v>153</v>
       </c>
       <c r="C17" s="10">
         <v>3</v>
@@ -47943,8 +46817,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="37" t="s">
-        <v>157</v>
+      <c r="B18" s="29" t="s">
+        <v>154</v>
       </c>
       <c r="C18" s="10">
         <v>1</v>
@@ -47954,8 +46828,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="38" t="s">
-        <v>158</v>
+      <c r="B19" s="30" t="s">
+        <v>155</v>
       </c>
       <c r="C19" s="13">
         <v>6</v>
@@ -47981,22 +46855,22 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="27"/>
+      <c r="B22" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="40"/>
       <c r="D22" s="21"/>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="22"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
+    <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="22"/>
       <c r="E24" s="8"/>
       <c r="F24" s="9" t="s">
@@ -48004,10 +46878,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="41">
+      <c r="B25" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="32">
         <f>MIN(Dépenses_loisirs____par_mois)</f>
         <v>0</v>
       </c>
@@ -48015,10 +46889,10 @@
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="43">
+      <c r="B26" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="33">
         <f>MAX(Dépenses_loisirs____par_mois)</f>
         <v>1000</v>
       </c>
@@ -48026,20 +46900,21 @@
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="44" t="s">
-        <v>150</v>
+      <c r="C27" s="34">
+        <f>_xlfn.MODE.SNGL(Dépenses_loisirs____par_mois)</f>
+        <v>100</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="34">
         <f>AVERAGE(Dépenses_loisirs____par_mois)</f>
         <v>137.24175824175825</v>
       </c>
@@ -48047,10 +46922,10 @@
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="34">
         <f>MEDIAN(Dépenses_loisirs____par_mois)</f>
         <v>100</v>
       </c>
@@ -48059,10 +46934,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="44">
+      <c r="B30" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="34">
         <f>_xlfn.STDEV.S(Dépenses_loisirs____par_mois)</f>
         <v>159.65921632929164</v>
       </c>
@@ -48070,197 +46945,164 @@
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="45">
+      <c r="B31" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="35">
         <f>C30/C28</f>
         <v>1.1633428365734277</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="46">
-        <f>ABS((200-C28)/C30)</f>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="36">
+        <f>(200-C28)/C30</f>
         <v>0.39307622322788455</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="43">
+    <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="33">
         <f>_xlfn.PERCENTILE.EXC(Dépenses_loisirs____par_mois,0.45)</f>
         <v>100</v>
       </c>
       <c r="D33" s="8"/>
+      <c r="F33" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" s="49"/>
+      <c r="H33" s="40"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="43">
+    <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="33">
         <f>_xlfn.QUARTILE.EXC(Dépenses_loisirs____par_mois,3)</f>
         <v>150</v>
       </c>
       <c r="D34" s="8"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="44"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" s="43">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="33">
         <f>_xlfn.PERCENTILE.EXC(Dépenses_loisirs____par_mois,0.4)</f>
         <v>70</v>
       </c>
+      <c r="F35" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" s="47"/>
+      <c r="H35" s="34">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,C30,C20)</f>
+        <v>16.40179548866908</v>
+      </c>
     </row>
-    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="48">
+    <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="37">
         <f>_xlfn.PERCENTILE.EXC(Dépenses_loisirs____par_mois,0.6)</f>
         <v>100</v>
       </c>
+      <c r="F36" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="47"/>
+      <c r="H36" s="34">
+        <f>C28-H35</f>
+        <v>120.83996275308917</v>
+      </c>
     </row>
-    <row r="60" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K60" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="L60" t="s">
-        <v>133</v>
-      </c>
-      <c r="M60" t="s">
-        <v>132</v>
+    <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="G37" s="48"/>
+      <c r="H37" s="51">
+        <f>C28+H35</f>
+        <v>153.64355373042733</v>
       </c>
     </row>
     <row r="61" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K61" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="L61" s="32">
-        <v>163</v>
-      </c>
-      <c r="M61" s="35">
-        <v>0.44780219780219782</v>
-      </c>
+      <c r="K61" s="26"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="27"/>
     </row>
     <row r="62" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K62" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="L62" s="32">
-        <v>115</v>
-      </c>
-      <c r="M62" s="35">
-        <v>0.31593406593406592</v>
-      </c>
+      <c r="K62" s="26"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="27"/>
     </row>
     <row r="63" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K63" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="L63" s="32">
-        <v>49</v>
-      </c>
-      <c r="M63" s="35">
-        <v>0.13461538461538461</v>
-      </c>
+      <c r="K63" s="26"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="27"/>
     </row>
     <row r="64" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K64" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="L64" s="32">
-        <v>15</v>
-      </c>
-      <c r="M64" s="35">
-        <v>4.1208791208791208E-2</v>
-      </c>
+      <c r="K64" s="26"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="27"/>
     </row>
     <row r="65" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K65" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="L65" s="32">
-        <v>6</v>
-      </c>
-      <c r="M65" s="35">
-        <v>1.6483516483516484E-2</v>
-      </c>
+      <c r="K65" s="26"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="27"/>
     </row>
     <row r="66" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K66" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="L66" s="32">
-        <v>6</v>
-      </c>
-      <c r="M66" s="35">
-        <v>1.6483516483516484E-2</v>
-      </c>
+      <c r="K66" s="26"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="27"/>
     </row>
     <row r="67" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K67" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="L67" s="32">
-        <v>3</v>
-      </c>
-      <c r="M67" s="35">
-        <v>8.241758241758242E-3</v>
-      </c>
+      <c r="K67" s="26"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="27"/>
     </row>
     <row r="68" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K68" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="L68" s="32">
-        <v>1</v>
-      </c>
-      <c r="M68" s="35">
-        <v>2.7472527472527475E-3</v>
-      </c>
+      <c r="K68" s="26"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="27"/>
     </row>
     <row r="69" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K69" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="L69" s="32">
-        <v>6</v>
-      </c>
-      <c r="M69" s="35">
-        <v>1.6483516483516484E-2</v>
-      </c>
+      <c r="K69" s="26"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="27"/>
     </row>
     <row r="70" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K70" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="L70" s="32">
-        <v>364</v>
-      </c>
-      <c r="M70" s="35">
-        <v>1</v>
-      </c>
+      <c r="K70" s="26"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="B7:D8"/>
     <mergeCell ref="B22:C24"/>
+    <mergeCell ref="F33:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;RCorantin Noll gr101
 </oddHeader>
   </headerFooter>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>